--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,9 +318,6 @@
     <t>supportedPatientInfo</t>
   </si>
   <si>
-    <t>publicPrisEnCharge : JDV-J29-PublicPrisEnCharge-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:supportedPatientInfo.id</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>publicPrisEnCharge</t>
   </si>
   <si>
     <t>Extension.extension:ageRange</t>
@@ -1392,15 +1392,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1503,10 +1503,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1609,10 +1609,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1635,16 +1635,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1694,22 +1694,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1743,13 +1743,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1776,29 +1776,29 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1810,13 +1810,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -1932,7 +1932,7 @@
         <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2038,7 +2038,7 @@
         <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2144,7 +2144,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2167,16 +2167,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2226,22 +2226,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2252,7 +2252,7 @@
         <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2278,10 +2278,10 @@
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2332,7 +2332,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2344,10 +2344,10 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -2561,7 +2561,7 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2811,16 +2811,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2870,22 +2870,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2922,10 +2922,10 @@
         <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2976,7 +2976,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -2988,10 +2988,10 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
